--- a/PLFS_Metadata (1).xlsx
+++ b/PLFS_Metadata (1).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Akshay\Analytics &amp; Innovation\Unified Data Portal\Data Catalogue\PLFS\PLFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B963B0-DA05-4F37-993E-8EBF852A206C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35BF533-72EE-440E-910E-62E4E2450FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{90ACCF8D-C7D2-4D6D-9247-02748FDDC274}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90ACCF8D-C7D2-4D6D-9247-02748FDDC274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -445,15 +445,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,7 +771,7 @@
   <dimension ref="A3:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="V3" sqref="V3:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,41 +786,41 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="P3" s="8" t="s">
+      <c r="N3" s="8"/>
+      <c r="P3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="9"/>
       <c r="S3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -838,7 +837,7 @@
       <c r="Q4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="V4" s="10">
+      <c r="V4" s="7">
         <v>1</v>
       </c>
       <c r="W4" s="4" t="s">
@@ -885,10 +884,10 @@
       <c r="S5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="7">
         <v>2</v>
       </c>
       <c r="W5" s="4" t="s">
@@ -931,10 +930,10 @@
       <c r="S6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="7">
         <v>3</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -973,10 +972,10 @@
       <c r="S7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="7">
         <v>4</v>
       </c>
       <c r="W7" s="4" t="s">
@@ -1003,10 +1002,10 @@
       <c r="S8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="7">
         <v>5</v>
       </c>
       <c r="W8" s="4" t="s">
@@ -1027,10 +1026,10 @@
       <c r="S9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="7">
         <v>6</v>
       </c>
       <c r="W9" s="4" t="s">
@@ -1051,10 +1050,10 @@
       <c r="S10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="7">
         <v>7</v>
       </c>
       <c r="W10" s="4" t="s">
@@ -1075,10 +1074,10 @@
       <c r="S11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="7">
         <v>8</v>
       </c>
       <c r="W11" s="4" t="s">
@@ -1099,10 +1098,10 @@
       <c r="S12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="7">
         <v>9</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1123,7 +1122,7 @@
       <c r="S13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="T13" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1139,7 +1138,7 @@
       <c r="S14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1155,7 +1154,7 @@
       <c r="S15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1171,7 +1170,7 @@
       <c r="S16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1185,7 +1184,7 @@
       <c r="S17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1199,7 +1198,7 @@
       <c r="S18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1213,7 +1212,7 @@
       <c r="S19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1227,7 +1226,7 @@
       <c r="S20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1241,7 +1240,7 @@
       <c r="S21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="T21" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1255,7 +1254,7 @@
       <c r="S22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1269,7 +1268,7 @@
       <c r="S23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1283,7 +1282,7 @@
       <c r="S24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="T24" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1425,13 +1424,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
